--- a/biology/Zoologie/Chasmistes/Chasmistes.xlsx
+++ b/biology/Zoologie/Chasmistes/Chasmistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasmistes est un genre de poisson à nageoires rayonnées de la famille Catostomidae. Les espèces du genre vivent en eau douce, dans l'ouest américain. Plusieurs des espèces sont gravement menacées. Deux sont éteintes dont une est seulement connus à partir de fossiles.
 </t>
@@ -511,16 +523,52 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (16 avril 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (16 avril 2015) :
 Chasmistes brevirostris Cope, 1879
 Chasmistes cujus Cope, 1883
 Chasmistes fecundus Cope &amp; Yarrow, 1875
 Chasmistes liorus Jordan, 1878
-Chasmistes muriei Miller &amp; Smith, 1981
-Note
-Espèces éteintes :
+Chasmistes muriei Miller &amp; Smith, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chasmistes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasmistes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Espèces éteintes :
 Chasmistes muriei R. R. Miller &amp; G. R. Smith, 1981 †
 Chasmistes spatulifer R. R. Miller &amp; G. R. Smith, 1967 †</t>
         </is>
